--- a/fss/07 参考资料/业务资料/孵化项目.xlsx
+++ b/fss/07 参考资料/业务资料/孵化项目.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\su\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\fss\07 参考资料\业务资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="我家附近" sheetId="1" r:id="rId1"/>
-    <sheet name="我家附近 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="家教服务平台" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
